--- a/Business_in_Astoria_Categories.xlsx
+++ b/Business_in_Astoria_Categories.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Agriculture &amp; Forestry/Wildlife.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Personal Services.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Agriculture &amp; Forestry/Wildlife.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Personal Services. </t>
         </is>
       </c>
     </row>
@@ -774,43 +774,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dreams Design Group Inc</t>
+          <t>Sandhu Contracting Inc.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nurzhamal Ryskulova</t>
+          <t>Ram Sandhu</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2122020767</v>
+        <v>7182748457</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nucha@dreamsanimation.com</t>
+          <t>sandhucontractinginc@gmail.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45229</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>30-97 Steinway St, Ste 304</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Ste 304</t>
-        </is>
-      </c>
+          <t>18-07 38th St.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -822,16 +820,12 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>11103</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>http://www.DreamsAnimation.com</t>
-        </is>
-      </c>
+        <v>11105</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Award Wining Consulting/Advertising/PR &amp; Marketing Agency based in NYC that provides branding, online marketing, business consulting, web design &amp; development, video production &amp; mobile app development. We are proud to have partnered &amp; worked for large respected companies such as United Nations, Farmers Insurance, Peru To The World Expo, CPR123, Dominican Film Festival, Latin Maps, Shell, Elaine Lafferty, Frito Lay and many more. With our consultants and creative design team, we have specialized in creative solutions that empower organizations to communicate their message effectively, and connect with their target audience. All our campaigns maintain a  strong focus which is a blend of branding, online reputation, lead generation and conversion optimization, keeping this in our target guarantees instantaneous results for all our client.</t>
+          <t>Roofing contractor, sheet metal roofing, carpentry, and masonry repairs.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -843,20 +837,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sandhu Contracting Inc.</t>
+          <t>Garcia Marble And Tile, Inc.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ram Sandhu</t>
+          <t>Juan Garcia</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7182748457</v>
+        <v>7189325141</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sandhucontractinginc@gmail.com</t>
+          <t>juan@garciamarbleandtile.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -865,16 +859,16 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45229</v>
+        <v>45322</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18-07 38th St.</t>
+          <t>18-59 Ditmars Boulevard</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -894,7 +888,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Roofing contractor, sheet metal roofing, carpentry, and masonry repairs.</t>
+          <t>Furnish &amp; install ceramic, stone, porcelain and quarry tile.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -906,22 +900,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Promina Engineering, P.C.</t>
+          <t>Constructive Pro Inc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mina Malek</t>
+          <t>Calina Hiriza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>917-355-0110</t>
+          <t>347-866-0053</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>admin@promina-eng.com</t>
+          <t>calina@constructivepro.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -937,12 +931,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12-15 Broadway</t>
+          <t>4012 20th Avenue</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Suite 330</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -956,12 +950,16 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>11106</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>11105</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://www.ConstructiveProMechanical.com</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Professional Engineering Services</t>
+          <t>MECHANICAL WORK, INSTALLATION OF ANY TYPE OF PIPING FOR STEAM, REFRIGERATION OR HEATING (BLACK, COPPER, PVC), INSULATION, INTERIOR AND EXTERIOR WRAPPING. HVAC START UP.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -973,38 +971,38 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>816 New York, LLC</t>
+          <t>Triboro Printing Corp.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>212-812-4417</t>
-        </is>
+          <t>Ebrahim Jaffer</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7182749572</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>connect@816nyc.com</t>
+          <t>info@triboroprinting.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>44255</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32-35 30th Street, A45</t>
+          <t>25-02 Steinway Street</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1019,16 +1017,16 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>11106</v>
+        <v>11103</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://816nyc.com</t>
+          <t>http://www.triboroprinting.com</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>816 New York positions nonprofits and small to mid-sized businesses to explore their absolute potential, devise tangible strategy, launch timeless brands, and create consistent outreach. Since 2009, our award-winning New York City brand strategy and communications agency has united with and mobilized nonprofit and community organizations, tech and energy businesses, restaurants, and other small teams.   Brand Consulting, Image Consulting, Outreach/Promotion services: Competitive Analysis, Market Research and Analysis, Company and Product Naming, Brand Positioning, Brand Messaging and Tagline, Brand Voice and Verbal Style, Brand Values and Attributes, Brand Architecture and Portfolio Strategy, Persona Development, Visual Image Review, Logo and Visual Systems, Brand Style Guides, Brand Briefs, Marketing Templates, Stationery Templates, Trade Show Booth Design, Signage Design, Print Design, Digital Strategy and Planning, Content Strategy, Cause Marketing, User Experience (UX) Design, Website Design and Development, Search Engine Optimization (SEO), Social Media Marketing, Email Marketing, Direct Mail / Print Campaigns, Infographics, Presentations and Case Studies</t>
+          <t>Signs, digital printing, offset printing, banners, posters, channel letters, vinyl letters, postcards, menus, labels stamps.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1040,29 +1038,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Garcia Marble And Tile, Inc.</t>
+          <t>All In One Services International Inc.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juan Garcia</t>
+          <t>Maria Moran</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7189325141</v>
+        <v>7182675090</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>juan@garciamarbleandtile.com</t>
+          <t>maria@allinoneservices.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45322</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>08/30/2023;08/30/2023</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1071,10 +1071,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18-59 Ditmars Boulevard</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>25-40 27th Street</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Suite 2F</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1086,12 +1090,16 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>11105</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>11102</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://www.allinoneservices.com</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Furnish &amp; install ceramic, stone, porcelain and quarry tile.</t>
+          <t>POST CONSTRUCTION CLEANING AND JANITORIAL SERVICES</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1103,22 +1111,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Constructive Pro Inc</t>
+          <t>Notarantonio Creative</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calina Hiriza</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>347-866-0053</t>
-        </is>
+          <t>Pamela Notarantinio</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4014405292</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>calina@constructivepro.com</t>
+          <t>pamela@ncreative.nyc</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1134,12 +1140,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4012 20th Avenue</t>
+          <t>46-08 28th Avenue</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>#1</t>
+          <t>Apartment B</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1153,16 +1159,16 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>11105</v>
+        <v>11103</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://www.ConstructiveProMechanical.com</t>
+          <t>http://www.ncreative.nyc</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MECHANICAL WORK, INSTALLATION OF ANY TYPE OF PIPING FOR STEAM, REFRIGERATION OR HEATING (BLACK, COPPER, PVC), INSULATION, INTERIOR AND EXTERIOR WRAPPING. HVAC START UP.</t>
+          <t>Marketing materials, Advertising, Promotional Design &amp; Products, Web Design, Graphic Design, Design Consultant, Logos, Branding, Corporate Identity, Video, Production, Video Editing, Animation.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1174,20 +1180,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Triboro Printing Corp.</t>
+          <t>HUMZA VIDEO &amp; PHOTO, INC.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ebrahim Jaffer</t>
+          <t>Zafar Iqbal</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7182749572</v>
+        <v>7187777300</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>info@triboroprinting.com</t>
+          <t>printingplus30@yahoo.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1196,7 +1202,7 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44255</v>
+        <v>45045</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1205,7 +1211,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25-02 Steinway Street</t>
+          <t>40-07 30th Avenue</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1224,48 +1230,46 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://www.triboroprinting.com</t>
+          <t>http://www.printingplusny.com</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Signs, digital printing, offset printing, banners, posters, channel letters, vinyl letters, postcards, menus, labels stamps.</t>
+          <t>Full line of printing, banners, signs, metal signs, sublimation and screen printing on t shirts, printing and scanning of architectural maps color/black and white.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Education.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>All In One Services International Inc.</t>
+          <t>TRI-STATE Electrical &amp; Mechanical Inc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Maria Moran</t>
+          <t>Omar Mahmoud</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7182675090</v>
+        <v>7187707295</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>maria@allinoneservices.com</t>
+          <t>omar@tristatem.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>08/30/2023;08/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>44680</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1274,14 +1278,10 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25-40 27th Street</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Suite 2F</t>
-        </is>
-      </c>
+          <t>36-07 20th Avenue</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1293,62 +1293,60 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>11102</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>http://www.allinoneservices.com</t>
-        </is>
-      </c>
+        <v>11105</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>POST CONSTRUCTION CLEANING AND JANITORIAL SERVICES</t>
+          <t>Electrical Contracting</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Education.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Notarantonio Creative</t>
+          <t>AIR CONSTRUCTION CORP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pamela Notarantinio</t>
+          <t>Afzal Khan</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4014405292</v>
+        <v>2122035371</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pamela@ncreative.nyc</t>
+          <t>airconstruction786@gmail.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>44984</v>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>46-08 28th Avenue</t>
+          <t>842 Astoria Blvd</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Apartment B</t>
+          <t>Apt 1L Astoria</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1362,21 +1360,17 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11103</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>http://www.ncreative.nyc</t>
-        </is>
-      </c>
+        <v>11102</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Marketing materials, Advertising, Promotional Design &amp; Products, Web Design, Graphic Design, Design Consultant, Logos, Branding, Corporate Identity, Video, Production, Video Editing, Animation.</t>
+          <t>Roofing,Masonry,Side Walk,Pointing,Painting,GYP board, Concrete, Flooring,Bathroom.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |Motor Vehicle.  |Natural Resources/Environmetal.  |Safety/Security &amp; Legal. </t>
         </is>
       </c>
     </row>
@@ -1437,27 +1431,27 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TRI-STATE Electrical &amp; Mechanical Inc</t>
+          <t>T.R Joy &amp; Associates Inc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Omar Mahmoud</t>
+          <t>Dominic Joy</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7187707295</v>
+        <v>7182648748</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>omar@tristatem.com</t>
+          <t>dominic@trjoy.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1466,16 +1460,16 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44680</v>
+        <v>45045</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>36-07 20th Avenue</t>
+          <t>18-30 42nd Street</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1492,46 +1486,48 @@
       <c r="L16" t="n">
         <v>11105</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://www.trjoy.com</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Electrical Contracting</t>
+          <t>Full services systems integration company, specializing in design, installation and maintenance of access control, CCTV and communication systems. Our services also include the installation of data communications systems, audio visual systems and fiber optic infrastructure.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FMSGroup Inc</t>
+          <t>YOR Engineering, PLLC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sayma Jabbar</t>
+          <t>Yogesh Ravanan</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7189327882</v>
+        <v>7326720997</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fmsincometax@gmail.com</t>
+          <t>Yravanan@gmail.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>05/30/2023;05/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1540,10 +1536,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2525 Astoria Blvd FL 1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>3063 32nd Street</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Suite #2A</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1557,35 +1557,41 @@
       <c r="L17" t="n">
         <v>11102</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://www.yoreng.net</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Consulting service including tax, immigration.</t>
+          <t>YOR Engineering, PPLC provide residential engineering &amp; inspection services/ construction management for large infrastructure projects including water main, sanitary &amp; storm sewer, as well as sidewalk, roadway, curbs and pedestrian ramp construction.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HUMZA VIDEO &amp; PHOTO, INC.</t>
+          <t>EcoSafety Consultants Inc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zafar Iqbal</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>7187777300</v>
+          <t>Yahya Mushtaq</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>646-717-4908</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>printingplus30@yahoo.com</t>
+          <t>shahid@ecosafety.nyc</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1594,7 +1600,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45045</v>
+        <v>45716</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1603,7 +1609,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>40-07 30th Avenue</t>
+          <t>32-78 31st Street</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1618,50 +1624,52 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>11103</v>
+        <v>11106</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://www.printingplusny.com</t>
+          <t>https://www.ecosafety.nyc</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Full line of printing, banners, signs, metal signs, sublimation and screen printing on t shirts, printing and scanning of architectural maps color/black and white.</t>
+          <t>EcoSafety Consultants does site safety management and OSHA training.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIR CONSTRUCTION CORP</t>
+          <t>FMSGroup Inc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Afzal Khan</t>
+          <t>Sayma Jabbar</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2122035371</v>
+        <v>7189327882</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>airconstruction786@gmail.com</t>
+          <t>fmsincometax@gmail.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44984</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>05/30/2023;05/30/2023</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1670,14 +1678,10 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>842 Astoria Blvd</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Apt 1L Astoria</t>
-        </is>
-      </c>
+          <t>2525 Astoria Blvd FL 1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1694,55 +1698,57 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Roofing,Masonry,Side Walk,Pointing,Painting,GYP board, Concrete, Flooring,Bathroom.</t>
+          <t>Consulting service including tax, immigration.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |Motor Vehicle.  |Natural Resources/Environmetal.  |Safety/Security &amp; Legal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EcoSafety Consultants Inc</t>
+          <t>Promina Engineering, P.C.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Yahya Mushtaq</t>
+          <t>Mina Malek</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>646-717-4908</t>
+          <t>917-355-0110</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>shahid@ecosafety.nyc</t>
+          <t>admin@promina-eng.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>45716</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32-78 31st Street</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>12-15 Broadway</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Suite 330</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1756,48 +1762,46 @@
       <c r="L20" t="n">
         <v>11106</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>https://www.ecosafety.nyc</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EcoSafety Consultants does site safety management and OSHA training.</t>
+          <t>Professional Engineering Services</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YOR Engineering, PLLC</t>
+          <t>Mediamorphosis Advertising &amp; Technology, Inc.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Yogesh Ravanan</t>
+          <t>Poulami Mukherjee</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7326720997</v>
+        <v>7184723700</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Yravanan@gmail.com</t>
+          <t>ap@mediamorphosisinc.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44012</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>07/30/2021;07/30/2021</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1806,14 +1810,10 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3063 32nd Street</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Suite #2A</t>
-        </is>
-      </c>
+          <t>3537 36th Street</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1825,62 +1825,60 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>11102</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>http://www.yoreng.net</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>YOR Engineering, PPLC provide residential engineering &amp; inspection services/ construction management for large infrastructure projects including water main, sanitary &amp; storm sewer, as well as sidewalk, roadway, curbs and pedestrian ramp construction.</t>
+          <t>We provide advertising and technology services.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T.R Joy &amp; Associates Inc</t>
+          <t>Dreams Design Group Inc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dominic Joy</t>
+          <t>Nurzhamal Ryskulova</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7182648748</v>
+        <v>2122020767</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>dominic@trjoy.com</t>
+          <t>nucha@dreamsanimation.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>45045</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18-30 42nd Street</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>30-97 Steinway St, Ste 304</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Ste 304</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -1892,61 +1890,59 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>11105</v>
+        <v>11103</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://www.trjoy.com</t>
+          <t>http://www.DreamsAnimation.com</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Full services systems integration company, specializing in design, installation and maintenance of access control, CCTV and communication systems. Our services also include the installation of data communications systems, audio visual systems and fiber optic infrastructure.</t>
+          <t>Award Wining Consulting/Advertising/PR &amp; Marketing Agency based in NYC that provides branding, online marketing, business consulting, web design &amp; development, video production &amp; mobile app development. We are proud to have partnered &amp; worked for large respected companies such as United Nations, Farmers Insurance, Peru To The World Expo, CPR123, Dominican Film Festival, Latin Maps, Shell, Elaine Lafferty, Frito Lay and many more. With our consultants and creative design team, we have specialized in creative solutions that empower organizations to communicate their message effectively, and connect with their target audience. All our campaigns maintain a  strong focus which is a blend of branding, online reputation, lead generation and conversion optimization, keeping this in our target guarantees instantaneous results for all our client.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mediamorphosis Advertising &amp; Technology, Inc.</t>
+          <t>816 New York, LLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Poulami Mukherjee</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>7184723700</v>
+          <t>Sarah Williams</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>212-812-4417</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ap@mediamorphosisinc.com</t>
+          <t>connect@816nyc.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>07/30/2021;07/30/2021</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3537 36th Street</t>
+          <t>32-35 30th Street, A45</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1963,10 +1959,14 @@
       <c r="L23" t="n">
         <v>11106</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://816nyc.com</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>We provide advertising and technology services.</t>
+          <t>816 New York positions nonprofits and small to mid-sized businesses to explore their absolute potential, devise tangible strategy, launch timeless brands, and create consistent outreach. Since 2009, our award-winning New York City brand strategy and communications agency has united with and mobilized nonprofit and community organizations, tech and energy businesses, restaurants, and other small teams.   Brand Consulting, Image Consulting, Outreach/Promotion services: Competitive Analysis, Market Research and Analysis, Company and Product Naming, Brand Positioning, Brand Messaging and Tagline, Brand Voice and Verbal Style, Brand Values and Attributes, Brand Architecture and Portfolio Strategy, Persona Development, Visual Image Review, Logo and Visual Systems, Brand Style Guides, Brand Briefs, Marketing Templates, Stationery Templates, Trade Show Booth Design, Signage Design, Print Design, Digital Strategy and Planning, Content Strategy, Cause Marketing, User Experience (UX) Design, Website Design and Development, Search Engine Optimization (SEO), Social Media Marketing, Email Marketing, Direct Mail / Print Campaigns, Infographics, Presentations and Case Studies</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2768,43 +2768,43 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NY Creative Interns, LLC</t>
+          <t>Grid Squared Security &amp; Data Systems, Inc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Emily Miethner</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>6465439823</v>
+          <t>Lon Bazelais</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>718-874-9128</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>emily@findspark.com</t>
+          <t>lon@gridsquared.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3050 30th St</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>#1R</t>
-        </is>
-      </c>
+          <t>35-27 35th Street</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -2816,16 +2816,16 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>11102</v>
+        <v>11106</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://findspark.com</t>
+          <t>https://www.gridsquared.com</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>FindSpark is an online/offline career community of 22,000+ millennials. We've produced 250+ programs since 2011 and our members rep 500+ colleges and universities. We work with higher ed partners to bring our resources to their students and alumni and with employers interested in connecting with our community to enhance and support their pipeline, recruiting, diversity, and employer branding initiatives.</t>
+          <t>Grid Squared Security &amp; Data Systems does camera system, surveillance, access controls systems, alarm systems and intercom systems installations along with network, data and structured cabling.</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2837,40 +2837,40 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Grid Squared Security &amp; Data Systems, Inc</t>
+          <t>Rica Takashima Arts</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lon Bazelais</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>718-874-9128</t>
-        </is>
+          <t>Emi Iijima</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7182042701</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>lon@gridsquared.com</t>
+          <t>takashimarica@hotmail.com</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>44926</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>05/30/2023;05/30/2023</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>35-27 35th Street</t>
+          <t>2219 Steinway Street, 1L</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2885,16 +2885,16 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>https://www.gridsquared.com</t>
+          <t>https://www.pinterest.com/ricaspopart/</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Grid Squared Security &amp; Data Systems does camera system, surveillance, access controls systems, alarm systems and intercom systems installations along with network, data and structured cabling.</t>
+          <t>Services: Design, Illustration, Painting, Drawing, Publishing, Holding workshop, Holding event.  Products: Book, general merchandise  Â¿ Keywords: Pop art, Cartoon, Public art, Public event, Family, Kids, Flyer, Poster, Photoshop, Street festival, Street fair, Open air, Festival, LGBT, Women, Diversity, Health, Fun, Funny, Colorful, Feminism, Childcare, Playground, Park, Library,</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2906,40 +2906,38 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rica Takashima Arts</t>
+          <t>Genesis Environmental Consultants, Inc.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Emi Iijima</t>
+          <t>Raul Javier</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7182042701</v>
+        <v>7189328505</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>takashimarica@hotmail.com</t>
+          <t>genesisenvironmental@msn.com</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>05/30/2023;05/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>44134</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2219 Steinway Street, 1L</t>
+          <t>1236 31st Drive</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2954,16 +2952,16 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>11105</v>
+        <v>11106</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://www.pinterest.com/ricaspopart/</t>
+          <t>http://www.genesiseci.com</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Services: Design, Illustration, Painting, Drawing, Publishing, Holding workshop, Holding event.  Products: Book, general merchandise  Â¿ Keywords: Pop art, Cartoon, Public art, Public event, Family, Kids, Flyer, Poster, Photoshop, Street festival, Street fair, Open air, Festival, LGBT, Women, Diversity, Health, Fun, Funny, Colorful, Feminism, Childcare, Playground, Park, Library,</t>
+          <t>Genesis provides a vast range of consulting and analytical services. Consulting services include, but not limited to, asbestos and lead abatement air monitoring, indoor air quality studies, building surveys, environmental assessments and technical specifications. Analytical services include asbestos airborne analysis by phase contrast microscopy.</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3698,43 +3696,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Wanderscape International Inc.</t>
+          <t>NY Creative Interns, LLC</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Debbie Arcangeles</t>
+          <t>Emily Miethner</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9175868692</v>
+        <v>6465439823</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>debbie@promarketsolution.com</t>
+          <t>emily@findspark.com</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>06/29/2020;06/29/2020</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2429 33rd Street</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>3050 30th St</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>#1R</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -3750,62 +3748,58 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://www.promarketsolution.com</t>
+          <t>http://findspark.com</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Promarket Solution sells promotional (ad specialties) to business and non-profits and is the trade name for the promotional product division of Wanderscape International, Inc.  Wanderscape International, Inc. is an import / export / company reselling food, apparel, personal care, ad specialties and agricultural products.</t>
+          <t>FindSpark is an online/offline career community of 22,000+ millennials. We've produced 250+ programs since 2011 and our members rep 500+ colleges and universities. We work with higher ed partners to bring our resources to their students and alumni and with employers interested in connecting with our community to enhance and support their pipeline, recruiting, diversity, and employer branding initiatives.</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Denali Electric Corp.</t>
+          <t>Calm City LLC</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Juan Ramirez</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>7188236022</v>
+          <t>Kristin Westbrook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>917-553-8879</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>juan@denalielectric.com</t>
+          <t>info@calmcitynyc.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>44560</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25-40 Shore Blvd.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>15D</t>
-        </is>
-      </c>
+          <t>21-45 46th street</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -3817,37 +3811,41 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>11102</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>11105</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://Calm City</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Provide electrical services and installations in a residential and commercial setting.</t>
+          <t>Calm City is New Yorkâs first mobile meditation studio. In our mobile studio housed in a classic RV, groups of up to nine people relax, recharge, and find balance in a safe and friendly environment. We facilitate live and audio-guided meditation programs. Combining the relevance of a boutique studio with the convenience of a food truck, our service brings meditation directly to the public and private sectors.  Our mission is to offer a convenient, safe and accessible place to deliver the practice of meditation, creating happier and healthier people of all ages. Benefits of this practice include: broader awareness, shifts in perspective, improved productivity, reduction in stress and fatigue, improved health, better sleep, clarity of mind and focus. We bring Calm City to communities, hospitals, schools, and businesses to strengthen and build their wellness programs.</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tutors on Wheels</t>
+          <t>Wanderscape International Inc.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jasleen Sabharwal</t>
+          <t>Debbie Arcangeles</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7182680092</v>
+        <v>9175868692</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jsabharwal@tutorsonwheels.com</t>
+          <t>debbie@promarketsolution.com</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3857,7 +3855,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10/30/2022;10/30/2022</t>
+          <t>06/29/2020;06/29/2020</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3867,14 +3865,10 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>35-37 36th Street</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Suite 509</t>
-        </is>
-      </c>
+          <t>2429 33rd Street</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -3886,21 +3880,21 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>11106</v>
+        <v>11102</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://www.tutorsonwheels.com</t>
+          <t>http://www.promarketsolution.com</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Our company provides early intervention services, special education services, speech therapy and private tutoring at homes, schools and day cares. We have been in operation since last 14 years.</t>
+          <t>Promarket Solution sells promotional (ad specialties) to business and non-profits and is the trade name for the promotional product division of Wanderscape International, Inc.  Wanderscape International, Inc. is an import / export / company reselling food, apparel, personal care, ad specialties and agricultural products.</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality.  |Real Estate &amp; Housing.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Education.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
@@ -3963,47 +3957,45 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services. </t>
+          <t xml:space="preserve"> |Education.  |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5J's Electrical Contractors Corp.</t>
+          <t>Maryam Shariat</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jose Gonzalez</t>
+          <t>Maryam Shariat</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>347-782-4434</t>
+          <t>646-389-9493</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5JsElectrical@5Jselectrical.com</t>
+          <t>maryam@moreful.ly</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>44255</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>38-01  23 Avenue Suite 411</t>
+          <t>35-17 29th Street #1R</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -4018,58 +4010,66 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>11105</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>11106</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://moreful.ly/</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Security Systems</t>
+          <t>An independent engagement and events (corporate, nonprofit and personal) consultancy that aims to unlock the best in your purpose and programs through carefully considered designed programs, and purposefully implemented experiences and thoughtfully crafted events.   Working with business, nonprofits, and private citizens, working with MoreFul.ly ensures a comprehensive and creative approach to realizing your event goals.   Please visit MoreFul.ly for a comprehensive portfolio of work.</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Women's Weekend Film Challenge, LLC</t>
+          <t>Denali Electric Corp.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Katrina Medoff</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>302-545-4407</t>
-        </is>
+          <t>Juan Ramirez</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7188236022</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>womensweekendfilmchallenge@gmail.com</t>
+          <t>juan@denalielectric.com</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>44560</v>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4618 30th Rd Apt 1</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>25-40 Shore Blvd.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>15D</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -4081,62 +4081,64 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>11103</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>http://www.womensweekendfilmchallenge.com</t>
-        </is>
-      </c>
+        <v>11102</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>We are tackling the gross gender imbalance of the film industry by elevating the careers of women in film. We do this by providing a weekend-long film challenge where we place professional filmmakers on crews and supply all the required equipment, funds and support to make a short film. As a business, we sell tickets to screenings of these films, we sell merchandise with our logo, and we find corporate sponsors.</t>
+          <t>Provide electrical services and installations in a residential and commercial setting.</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |IT. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Maryam Shariat</t>
+          <t>Tutors on Wheels</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Maryam Shariat</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>646-389-9493</t>
-        </is>
+          <t>Jasleen Sabharwal</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7182680092</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>maryam@moreful.ly</t>
+          <t>Jsabharwal@tutorsonwheels.com</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10/30/2022;10/30/2022</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>35-17 29th Street #1R</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>35-37 36th Street</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Suite 509</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>Astoria</t>
@@ -4152,15 +4154,356 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://moreful.ly/</t>
+          <t>http://www.tutorsonwheels.com</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>An independent engagement and events (corporate, nonprofit and personal) consultancy that aims to unlock the best in your purpose and programs through carefully considered designed programs, and purposefully implemented experiences and thoughtfully crafted events.   Working with business, nonprofits, and private citizens, working with MoreFul.ly ensures a comprehensive and creative approach to realizing your event goals.   Please visit MoreFul.ly for a comprehensive portfolio of work.</t>
+          <t>Our company provides early intervention services, special education services, speech therapy and private tutoring at homes, schools and day cares. We have been in operation since last 14 years.</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Food &amp; Hospitality.  |Personal Services.  |Real Estate &amp; Housing.  |IT.  |Media &amp; Entertainment. </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5J's Electrical Contractors Corp.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jose Gonzalez</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>347-782-4434</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5JsElectrical@5Jselectrical.com</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>HISPANIC</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>38-01  23 Avenue Suite 411</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Astoria</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>11105</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Security Systems</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Heath Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Women's Weekend Film Challenge, LLC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Katrina Medoff</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>302-545-4407</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>womensweekendfilmchallenge@gmail.com</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>4618 30th Rd Apt 1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Astoria</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>11103</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://www.womensweekendfilmchallenge.com</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>We are tackling the gross gender imbalance of the film industry by elevating the careers of women in film. We do this by providing a weekend-long film challenge where we place professional filmmakers on crews and supply all the required equipment, funds and support to make a short film. As a business, we sell tickets to screenings of these films, we sell merchandise with our logo, and we find corporate sponsors.</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Emphasize LLC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Maria Villa</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7189327810</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>mvilla@emphasizellc.com</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>07/30/2019;07/30/2019</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>HISPANIC</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>23-42 Crescent Street</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t># 2Fl.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Astoria</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>11105</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://www.emphasizellc.com</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Full service eco-friendly graphic and web design/concept studio specializing in creative visual solutions. We offer a wide range of services such as brand identities, brochures and booklets, exhibition graphics, promotional and collateral materials, motion graphics and web design.</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Direct Digital Photography Inc.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cathy Salamone</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>347-808-7494</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>cathy@ddpny.com</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>12-08 30th Drive</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Suite 1A</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Astoria</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>11725</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://www.ddpny.com</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Photography and Video for construction projects: Our services include: pre-construction photographs, pre-construction videos, progress photos, progress videos, aerial photography, video editing and informational videos.</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Bayside Refrigeration, Inc.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Gerri Domenikos</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>7189471311</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>gerri@airlogix.co</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>24-26 46th Street</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Astoria</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>11103</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://www.airlogix.co</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Full service commercial, industrial and institutional HVAC, Refrigeration and Kitchen Equipment Contractor specializing in mainteanance, repairs and new installations</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t xml:space="preserve"> |Personal Services. </t>
         </is>
